--- a/TradeWebs/EMall.xlsx
+++ b/TradeWebs/EMall.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhe/PycharmProjects/YJCX_AI/TradeWebs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18F10563-3EE0-0B47-8BBD-452B9857FDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78ABACF6-388B-ED49-9080-7443C9F99D17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-42120" yWindow="480" windowWidth="45780" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="480" windowWidth="38400" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500" sheetId="1" r:id="rId1"/>
@@ -11605,7 +11605,7 @@
   <dimension ref="A1:AC25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14"/>
